--- a/JANE EVANS.xlsx
+++ b/JANE EVANS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="25" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="JUNE" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="NOVEMBER 21" sheetId="30" r:id="rId30"/>
     <sheet name="DECEMBER 21" sheetId="31" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="186">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -591,11 +591,23 @@
   <si>
     <t>DEC</t>
   </si>
+  <si>
+    <t>SIMON WERU</t>
+  </si>
+  <si>
+    <t>PAINTSSILK</t>
+  </si>
+  <si>
+    <t>PAINTS CROWNMATT+SANDPAPERS+FILLER</t>
+  </si>
+  <si>
+    <t>PAINTSSILK 10/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -840,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16102,10 +16114,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16222,10 +16234,12 @@
         <f t="shared" ref="E6:E8" si="1">B6+D6+C6</f>
         <v>5000</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>5000</v>
+      </c>
       <c r="G6" s="16">
         <f t="shared" ref="G6:G9" si="2">E6-F6</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -16270,27 +16284,35 @@
         <f t="shared" si="1"/>
         <v>15400</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <f>3000+1000</f>
+        <v>4000</v>
+      </c>
       <c r="G8" s="16">
         <f t="shared" si="2"/>
-        <v>15400</v>
+        <v>11400</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16">
-        <f>'NOVEMBER 21'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
+        <v>21500</v>
+      </c>
+      <c r="D9" s="15">
+        <v>20000</v>
+      </c>
       <c r="E9" s="16">
         <f>B9+D9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>41500</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41500</v>
+      </c>
       <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16308,23 +16330,23 @@
       </c>
       <c r="C10" s="16">
         <f t="shared" ref="C10:E10" si="3">SUM(C5:C9)</f>
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="3"/>
-        <v>39300</v>
+        <v>80800</v>
       </c>
       <c r="F10" s="4">
         <f>SUM(F5:F9)</f>
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="G10" s="16">
         <f>SUM(G5:G9)</f>
-        <v>39300</v>
+        <v>30300</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -16395,63 +16417,60 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>12</v>
       </c>
+      <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="16">
         <f>D10</f>
-        <v>20000</v>
-      </c>
-      <c r="C18" s="16"/>
+        <v>40000</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="16">
+      <c r="F18" s="16">
         <f>F10</f>
-        <v>0</v>
-      </c>
+        <v>50500</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>163</v>
       </c>
@@ -16459,227 +16478,241 @@
         <f>'NOVEMBER 21'!E30</f>
         <v>16030</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="F19" s="16">
         <f>'NOVEMBER 21'!I30</f>
         <v>6630</v>
       </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="16">
+        <v>20000</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="16">
+        <f>1500</f>
+        <v>1500</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="30">
         <v>0.1</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
         <f>B22*B18</f>
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="30">
+      <c r="F22" s="30">
         <v>0.1</v>
       </c>
-      <c r="H22" s="31">
-        <f>G22*B18</f>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="31">
+        <f>F22*B18</f>
+        <v>4000</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="30">
         <v>0.3</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="32" t="s">
+      <c r="C24" s="36">
+        <f>B24*D9</f>
+        <v>6000</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="30">
+      <c r="F24" s="30">
         <v>0.3</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="36">
+        <f>F24*D9</f>
+        <v>6000</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="33" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="33" t="s">
         <v>169</v>
       </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>5400</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>5400</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>11000</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>11000</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4">
-        <f>B18+B19+B20+B21-D22</f>
-        <v>34030</v>
-      </c>
-      <c r="C30" s="4"/>
+        <f>B18+B19+B20+B21-C22</f>
+        <v>73530</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUM(C24:C29)</f>
+        <v>22400</v>
+      </c>
       <c r="D30" s="4">
-        <f>SUM(D24:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <f>B30-D30</f>
-        <v>34030</v>
-      </c>
-      <c r="F30" s="13" t="s">
+        <f>B30-C30</f>
+        <v>51130</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="F30" s="4">
+        <f>F18+F19+F20+F21-G22</f>
+        <v>53130</v>
+      </c>
       <c r="G30" s="4">
-        <f>G18+G19+G20+G21-H22</f>
-        <v>4630</v>
+        <f>SUM(G24:G29)</f>
+        <v>22400</v>
       </c>
       <c r="H30" s="4">
-        <f>SUM(H24:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f>G30-H30</f>
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f>F30-G30</f>
+        <v>30730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="35" t="s">
+      <c r="C32" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
